--- a/문서/자바프로젝트_API.xlsx
+++ b/문서/자바프로젝트_API.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsm2016\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용호\Documents\GitHub\2uzubook\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11376" windowHeight="756"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>Function Category</t>
   </si>
@@ -69,12 +69,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">studentID: int 
-id: String
-pw: String                          name: String                geder: String           major: String            email: String                                       </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>자신의 레주매 보기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -91,10 +85,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">사용자의 모든 정보      추후에 명세 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>학생</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,18 +169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>awardName: String    award: String       awardDate: Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectName: String           projectStartDate: Date      projectfinishDate: Date projectContent: String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyName: String           companyWorkContent: String   companyDate: Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>동아리 페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -231,19 +209,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>circleName: String   circleContent: String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>volunteerName: String  volunteeerDate: Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">readingName: String            readingDate: Date 
-  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hobbyName: String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -280,10 +245,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -325,10 +286,6 @@
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">           X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -338,40 +295,138 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">studentID: int contestName: String contestDate: String </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentID: int projectName: String           projectStartDate: Date      projectfinishDate: Date projectContent: String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentID: int companyName: String           companyWorkContent: String   companyDate: Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentID: int circleName: String   circleContent: String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentID: int volunteerName: String  volunteeerDate: Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">studentID: int readingName: String            readingDate: Date 
-  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentID: int hobbyName: String</t>
+    <t xml:space="preserve">studentID: int 
+id: String
+pw: String
+name: String
+gender: String
+major: String
+email: String                                       </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentID: int
+projectName: String
+projectStartDate: Date
+projectfinishDate: Date
+projectContent: String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>studentID: int
+companyName: String
+companyWorkContent: Stri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g
+companyDate: Date</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentID: int
+circleName: String
+circleContent: String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">studentID: int
+contestName: String
+contestDate: String </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentID: int
+volunteerName: String
+volunteeerDate: Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentID: int
+readingName: String
+readingDate: Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentID: int
+hobbyName: String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectName: String
+projectStartDate: Date
+projectfinishDate: Date
+projectContent: String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyName: String
+companyWorkContent: String
+companyDate: Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circleName: String
+circleContent: String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volunteerName: String
+volunteeerDate: Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>readingName: String
+readingDate: Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자의 모든 정보 추후에 명세 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardName: String
+award: String
+awardDate: Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/2uzubook/loginAction</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -390,6 +445,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -418,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,15 +494,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -716,26 +804,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="22.25" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="14.25" customWidth="1"/>
-    <col min="12" max="12" width="30.75" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" customWidth="1"/>
+    <col min="12" max="12" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,9 +849,9 @@
       <c r="H1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -771,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -785,9 +874,9 @@
       <c r="H2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -802,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
@@ -810,34 +899,34 @@
       <c r="H3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -846,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -855,357 +944,360 @@
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="H6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="87" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="F22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
